--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1875564.160504889</v>
+        <v>-1878045.080330349</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>113.606887546549</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579958</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>24.30704168133476</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>20.0226661474465</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292096</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>142.8030728225341</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649684</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>317.2412928176539</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.52747233198811</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>69.90348458043307</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>90.12097307876901</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292092</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816015</v>
@@ -1901,16 +1901,16 @@
         <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>270.818786025889</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>287.3256240034741</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249337</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085019</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2059,7 +2059,7 @@
         <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130709</v>
       </c>
       <c r="W19" t="n">
         <v>212.627715130872</v>
@@ -2068,7 +2068,7 @@
         <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.0890643413387</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
-        <v>266.3605771184276</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816015</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339012</v>
@@ -2138,13 +2138,13 @@
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>196.150542462706</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249337</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365929101</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>214.21406637828</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2321,19 +2321,19 @@
         <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
@@ -2375,13 +2375,13 @@
         <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>155.7512320878717</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249337</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2536,7 +2536,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258339</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833182</v>
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>133.1067657762843</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>230.7340562419018</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>120.5216066929744</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060981</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>196.6598613601169</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>170.2318734253262</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,16 +4034,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>120.5216066929748</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>89.94326605922018</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1823.749336508874</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.978886828185</v>
+        <v>797.5365442767277</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828185</v>
+        <v>466.4629129297009</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489665</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597808</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="G11" t="n">
         <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329911</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
@@ -5069,22 +5069,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.50722039599</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>3217.954653041107</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>3217.954653041107</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2892.378065030716</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2546.10437402936</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>2183.157109313272</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2692096237423</v>
+        <v>418.3126375609357</v>
       </c>
       <c r="C13" t="n">
-        <v>759.525093955559</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029468</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802772</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420905</v>
+        <v>156.8706416545655</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765331</v>
+        <v>156.8706416545655</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541145</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402567</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5224,25 +5224,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1739.043642801465</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1511.551221855302</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1249.326119078065</v>
+        <v>967.1670306535519</v>
       </c>
       <c r="X13" t="n">
-        <v>1249.326119078065</v>
+        <v>766.3695470152583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.725607194258</v>
+        <v>572.7690351314518</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2140.018136355092</v>
+        <v>1848.301903863758</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.247686674404</v>
+        <v>1527.856153542895</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327377</v>
+        <v>1196.782522195868</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>838.1863368573473</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589724</v>
+        <v>454.3924993274633</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636926</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3267.497263698071</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="T14" t="n">
-        <v>3088.711583342017</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="U14" t="n">
-        <v>2862.373173875578</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="V14" t="n">
-        <v>2862.373173875578</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.373173875578</v>
+        <v>2916.9306323856</v>
       </c>
       <c r="X14" t="n">
-        <v>2862.373173875578</v>
+        <v>2570.656941384244</v>
       </c>
       <c r="Y14" t="n">
-        <v>2499.42590915949</v>
+        <v>2207.709676668156</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>708.443448489848</v>
+        <v>418.3126375609357</v>
       </c>
       <c r="C16" t="n">
-        <v>566.6993328216648</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="D16" t="n">
-        <v>496.089752437389</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="E16" t="n">
-        <v>375.3687261147195</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="F16" t="n">
-        <v>255.670845876533</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1519.522944359701</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1257.297841582464</v>
+        <v>967.167030653552</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.50035794417</v>
+        <v>766.3695470152583</v>
       </c>
       <c r="Y16" t="n">
-        <v>862.8998460603641</v>
+        <v>572.7690351314518</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1544.173786276205</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.852969543591</v>
+        <v>1249.85296954359</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446372</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446372</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628266</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,13 +5513,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5552,10 +5552,10 @@
         <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219625</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2171.629557900545</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
         <v>1856.13192613253</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872287</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671188</v>
+        <v>474.8272962671189</v>
       </c>
       <c r="D19" t="n">
-        <v>399.35235706258</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879839</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F19" t="n">
         <v>253.8327163978705</v>
@@ -5665,7 +5665,7 @@
         <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096714</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542002</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1518.904057542002</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1235.280059143048</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
         <v>966.2289711446365</v>
@@ -5750,19 +5750,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5786,16 +5786,16 @@
         <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166342</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398327</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872287</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671188</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D22" t="n">
-        <v>399.35235706258</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879839</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917492</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356249</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454045</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096714</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5999,16 +5999,16 @@
         <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3296.525057137383</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893065</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6020,19 +6020,19 @@
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6078,7 +6078,7 @@
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>575.9874173775279</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574178</v>
+        <v>481.6929346574179</v>
       </c>
       <c r="D25" t="n">
-        <v>406.217995452879</v>
+        <v>406.2179954528791</v>
       </c>
       <c r="E25" t="n">
         <v>332.9466020782829</v>
@@ -6139,7 +6139,7 @@
         <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0617317963401</v>
+        <v>96.06173179634013</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259243</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720296</v>
+        <v>829.1450609357039</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362965</v>
+        <v>682.9941819999707</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058811</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676538</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643393</v>
@@ -6379,37 +6379,37 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2642.103738532152</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6680,22 +6680,22 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398484</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668888</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6704,37 +6704,37 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711678</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383602</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442385</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973153</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572252</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.2736995386226</v>
+        <v>599.6022649647791</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107157</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>379.22087719838</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.10716072584</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.361425262723</v>
+        <v>985.4928044205431</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.043308938549</v>
+        <v>856.1746880963692</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.9221643688624</v>
+        <v>734.0535435266825</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7254,7 +7254,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.906970512758</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586945</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463587</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639656</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398986</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146176</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>886.8213698466993</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388411</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691543</v>
+        <v>635.3821089528387</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,19 +7394,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7418,43 +7418,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158131</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909359</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368723</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D43" t="n">
-        <v>379.22087719838</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.10716072584</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.361425262723</v>
+        <v>877.980392515328</v>
       </c>
       <c r="X43" t="n">
-        <v>903.3718743647057</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211756</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912092</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389145</v>
+        <v>453.7336441225993</v>
       </c>
       <c r="C46" t="n">
-        <v>571.970787584851</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725152</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>273.9410545901221</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>886.8213698466996</v>
       </c>
       <c r="X46" t="n">
-        <v>946.005145338841</v>
+        <v>757.5032535225257</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691542</v>
+        <v>536.7106743789956</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430631</v>
+        <v>157.2353108430633</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729008</v>
+        <v>184.403943372901</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389604</v>
+        <v>191.4948909389607</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333067</v>
+        <v>181.0856325333071</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830241</v>
+        <v>179.3553748830244</v>
       </c>
       <c r="O8" t="n">
-        <v>182.830155438399</v>
+        <v>182.8301554383993</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586585</v>
+        <v>190.8908035586588</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266124</v>
+        <v>192.0103836266126</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875974</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372533</v>
+        <v>113.6031223372535</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672274</v>
+        <v>105.9629718672276</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253593</v>
+        <v>104.1013981253596</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677652</v>
+        <v>92.3024655867768</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359735</v>
+        <v>106.8829608359738</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798324</v>
+        <v>105.3113487798326</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615457</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564658</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085227</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140778</v>
+        <v>108.4284123140779</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>339.8144253784341</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>274.0980055054521</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>117.9051702753167</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>21.74982042514819</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>400.2032972882109</v>
       </c>
       <c r="N29" t="n">
-        <v>62.52018570663733</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,22 +10352,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>190.2350110279876</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>274.8351763665431</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.4033359385864</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>199.7679836904408</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>97.81220217974789</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>116.4886187959524</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.1114523662273</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579951</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.74014286906128</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>51.79184185065284</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>48.98468859313282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>25.01703144686097</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25.01703144686053</v>
       </c>
     </row>
     <row r="18">
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>41.67450974811516</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>57.70643280170998</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1160004.492795557</v>
+        <v>1160004.492795558</v>
       </c>
     </row>
     <row r="6">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143373.3592754818</v>
+        <v>143373.3592754817</v>
       </c>
       <c r="C2" t="n">
         <v>143373.3592754817</v>
       </c>
       <c r="D2" t="n">
-        <v>143377.2672160406</v>
+        <v>143377.2672160407</v>
       </c>
       <c r="E2" t="n">
         <v>127669.5001583707</v>
@@ -26329,22 +26329,22 @@
         <v>139042.8937181439</v>
       </c>
       <c r="H2" t="n">
-        <v>139042.8937181438</v>
+        <v>139042.8937181439</v>
       </c>
       <c r="I2" t="n">
         <v>143682.3097262495</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262495</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552287</v>
+        <v>59764.55367552244</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983363</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.109294874</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995426</v>
+        <v>421637.9387995427</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362506</v>
+        <v>38804.27401362509</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362514</v>
+        <v>38804.27401362509</v>
       </c>
       <c r="G4" t="n">
+        <v>75832.43437506736</v>
+      </c>
+      <c r="H4" t="n">
         <v>75832.43437506733</v>
       </c>
-      <c r="H4" t="n">
-        <v>75832.43437506736</v>
-      </c>
       <c r="I4" t="n">
-        <v>88045.16093451303</v>
+        <v>88045.16093451304</v>
       </c>
       <c r="J4" t="n">
         <v>84858.1594017309</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="L4" t="n">
         <v>84858.15940173084</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="N4" t="n">
+        <v>90964.0109881571</v>
+      </c>
+      <c r="O4" t="n">
         <v>90964.01098815707</v>
-      </c>
-      <c r="O4" t="n">
-        <v>90964.01098815708</v>
       </c>
       <c r="P4" t="n">
         <v>90964.0109881571</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186636</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521489</v>
@@ -26506,7 +26506,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331903.4907203387</v>
+        <v>-331907.9042982069</v>
       </c>
       <c r="C6" t="n">
-        <v>-331903.4907203388</v>
+        <v>-331907.9042982069</v>
       </c>
       <c r="D6" t="n">
-        <v>-373174.1306908912</v>
+        <v>-373178.4884410367</v>
       </c>
       <c r="E6" t="n">
-        <v>-1076943.236383713</v>
+        <v>-1077171.990806111</v>
       </c>
       <c r="F6" t="n">
-        <v>12295.73577991908</v>
+        <v>12066.98135752091</v>
       </c>
       <c r="G6" t="n">
-        <v>-54888.29307701239</v>
+        <v>-54954.57044855675</v>
       </c>
       <c r="H6" t="n">
-        <v>-17308.18378213844</v>
+        <v>-17374.46115368266</v>
       </c>
       <c r="I6" t="n">
-        <v>-52920.84733993922</v>
+        <v>-52920.8473399393</v>
       </c>
       <c r="J6" t="n">
-        <v>-55963.22437208414</v>
+        <v>-55963.22437208425</v>
       </c>
       <c r="K6" t="n">
-        <v>-30553.79135028727</v>
+        <v>-30553.7913502873</v>
       </c>
       <c r="L6" t="n">
-        <v>-68133.9006451614</v>
+        <v>-68133.90064516118</v>
       </c>
       <c r="M6" t="n">
-        <v>-231968.3985608816</v>
+        <v>-231968.3985608818</v>
       </c>
       <c r="N6" t="n">
-        <v>-29800.29856815738</v>
+        <v>-29800.29856815741</v>
       </c>
       <c r="O6" t="n">
-        <v>-29800.29856815736</v>
+        <v>-29800.29856815733</v>
       </c>
       <c r="P6" t="n">
-        <v>-29800.2985681573</v>
+        <v>-29800.29856815733</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790652</v>
+        <v>69.78465283790601</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26799,7 +26799,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>50.7095836095124</v>
+        <v>50.70958360951249</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790652</v>
+        <v>69.78465283790601</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672106</v>
+        <v>84.22861846672109</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987516</v>
+        <v>90.83829126987523</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519082</v>
+        <v>84.46220888519089</v>
       </c>
       <c r="K10" t="n">
-        <v>7.64903505099031</v>
+        <v>7.649035050990419</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317051</v>
+        <v>75.62456067317058</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075707</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.49558901075611</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075632</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075716</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C25" t="n">
-        <v>11.49558901075611</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571898</v>
+        <v>11.4955890107571</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859352</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>46.72521440565299</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30150,16 +30150,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565339</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371097</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30618,22 +30618,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>55.47778196371092</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565306</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413325</v>
+        <v>0.2805413179413305</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366673</v>
+        <v>2.873093772366651</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993323</v>
+        <v>10.81556915993315</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362319</v>
+        <v>23.81059368362302</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207981</v>
+        <v>35.68590767207954</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102687</v>
+        <v>44.27152403102654</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396604</v>
+        <v>49.26060069396568</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356685</v>
+        <v>50.05768871356649</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328773</v>
+        <v>47.26805598328738</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661107</v>
+        <v>40.34219219661078</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783709</v>
+        <v>30.29530624783687</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313225</v>
+        <v>17.62255356313212</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588122</v>
+        <v>6.392835282588075</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288184</v>
+        <v>1.228069619288175</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353066</v>
+        <v>0.02244330543530643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179648</v>
+        <v>0.1501028381796469</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840285</v>
+        <v>1.449677410840274</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694022</v>
+        <v>5.168014384693984</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906929</v>
+        <v>14.18142647906918</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371057</v>
+        <v>24.23831663710553</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264682</v>
+        <v>32.59140791264658</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665905</v>
+        <v>38.03263579665877</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655679</v>
+        <v>39.03924649655649</v>
       </c>
       <c r="O9" t="n">
-        <v>35.7132836084709</v>
+        <v>35.71328360847063</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449787</v>
+        <v>28.66305863449766</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447577</v>
+        <v>19.16049562447563</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767973</v>
+        <v>9.319542882767905</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608811</v>
+        <v>2.78809438460879</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890196</v>
+        <v>0.6050197731890151</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345266</v>
+        <v>0.009875186722345193</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486839</v>
+        <v>0.125841177248683</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811027</v>
+        <v>1.118842466811018</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078604</v>
+        <v>3.784387403078576</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481949</v>
+        <v>8.896971231481885</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489254</v>
+        <v>14.62045677489243</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477251</v>
+        <v>18.70915102477237</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908232</v>
+        <v>19.72617653908218</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115543</v>
+        <v>19.25713215115529</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875034</v>
+        <v>17.78707839875021</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287718</v>
+        <v>15.21991838287707</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852388</v>
+        <v>10.53748257852381</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338173</v>
+        <v>5.658276933381688</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233881</v>
+        <v>2.193068516233865</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625582</v>
+        <v>0.5376850300625543</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564583</v>
+        <v>0.006864064213564533</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32795,13 +32795,13 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002927</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,10 +33974,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34211,10 +34211,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34454,10 +34454,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35568,10 +35568,10 @@
         <v>72.49856320019262</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806102</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
@@ -35890,7 +35890,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -36136,7 +36136,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>892.1162607913456</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>672.859991724824</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,16 +36601,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>656.8262861055434</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>574.0516558380597</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,16 +36762,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861313</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>939.1244131184377</v>
       </c>
       <c r="N29" t="n">
-        <v>614.8220211195488</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,22 +37072,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>645.8251254203198</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547622</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629131</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,10 +37242,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37622,10 +37622,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37786,13 +37786,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37859,10 +37859,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38102,10 +38102,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
